--- a/img/testAdressen.xlsx
+++ b/img/testAdressen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="193">
   <si>
     <t>first name</t>
   </si>
@@ -19,7 +19,7 @@
     <t>between</t>
   </si>
   <si>
-    <t>lastname</t>
+    <t>surname</t>
   </si>
   <si>
     <t>Adress</t>
@@ -31,13 +31,16 @@
     <t>place</t>
   </si>
   <si>
+    <t>province</t>
+  </si>
+  <si>
     <t>Fernanda</t>
   </si>
   <si>
     <t>Albers</t>
   </si>
   <si>
-    <t>Admiraal de Ruyterlaan125</t>
+    <t>Admiraal de Ruyterlaan 125</t>
   </si>
   <si>
     <t>1421VK</t>
@@ -46,6 +49,9 @@
     <t>Uithoorn</t>
   </si>
   <si>
+    <t>Noord-Holland</t>
+  </si>
+  <si>
     <t>Casima</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Apeldoorn</t>
   </si>
   <si>
+    <t>Gelderland</t>
+  </si>
+  <si>
     <t>Gert-Jan</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Emmen</t>
   </si>
   <si>
+    <t>Drenthe</t>
+  </si>
+  <si>
     <t>Wiebe</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>Leeuwarden</t>
   </si>
   <si>
+    <t>Friesland</t>
+  </si>
+  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -112,6 +127,9 @@
     <t>Pijnacker</t>
   </si>
   <si>
+    <t>Zuid-Holland</t>
+  </si>
+  <si>
     <t>Joyce</t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>Uden</t>
   </si>
   <si>
+    <t>Noord-Brabant</t>
+  </si>
+  <si>
     <t>Ercelik</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t>Maastricht</t>
   </si>
   <si>
+    <t>Limburg</t>
+  </si>
+  <si>
     <t>Dexter</t>
   </si>
   <si>
@@ -259,6 +283,9 @@
     <t>Enschede</t>
   </si>
   <si>
+    <t>Overijssel</t>
+  </si>
+  <si>
     <t>Arthur</t>
   </si>
   <si>
@@ -268,7 +295,7 @@
     <t>Burg</t>
   </si>
   <si>
-    <t>Edisonweg14 B</t>
+    <t>Edisonweg 14 B</t>
   </si>
   <si>
     <t>1821BN</t>
@@ -332,13 +359,244 @@
   </si>
   <si>
     <t>Middelburg</t>
+  </si>
+  <si>
+    <t>Zeeland</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Lennon</t>
+  </si>
+  <si>
+    <t>Gerard Doustraat 15 H</t>
+  </si>
+  <si>
+    <t>1072VJ</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>McCartney</t>
+  </si>
+  <si>
+    <t>Rustenburgerstraat 63 1</t>
+  </si>
+  <si>
+    <t>1074ES</t>
+  </si>
+  <si>
+    <t>Georgina</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Zwanebloemlaan 117</t>
+  </si>
+  <si>
+    <t>1087JT</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Valeriusstraat 137</t>
+  </si>
+  <si>
+    <t>1075ET</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Jong</t>
+  </si>
+  <si>
+    <t>Rigastraat 44</t>
+  </si>
+  <si>
+    <t>8232RS</t>
+  </si>
+  <si>
+    <t>Lelystad</t>
+  </si>
+  <si>
+    <t>Flevoland</t>
+  </si>
+  <si>
+    <t>Douwe</t>
+  </si>
+  <si>
+    <t>Haanstra</t>
+  </si>
+  <si>
+    <t>Fjildwei 4</t>
+  </si>
+  <si>
+    <t>8541AC</t>
+  </si>
+  <si>
+    <t>Alkmarijp</t>
+  </si>
+  <si>
+    <t>Harmen</t>
+  </si>
+  <si>
+    <t>Visser</t>
+  </si>
+  <si>
+    <t>Haarsmastraat 7</t>
+  </si>
+  <si>
+    <t>7983KL</t>
+  </si>
+  <si>
+    <t>Wapse</t>
+  </si>
+  <si>
+    <t>Lies</t>
+  </si>
+  <si>
+    <t>Sevriens</t>
+  </si>
+  <si>
+    <t>Venloseweg 22</t>
+  </si>
+  <si>
+    <t>5993PJ</t>
+  </si>
+  <si>
+    <t>Maasbree</t>
+  </si>
+  <si>
+    <t>Evi</t>
+  </si>
+  <si>
+    <t>Meertens</t>
+  </si>
+  <si>
+    <t>Beiaard 9</t>
+  </si>
+  <si>
+    <t>4876CA</t>
+  </si>
+  <si>
+    <t>Etten-Leur</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Laar</t>
+  </si>
+  <si>
+    <t>Kromme Nieuwegracht 92 BS</t>
+  </si>
+  <si>
+    <t>3512HM</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Havertong</t>
+  </si>
+  <si>
+    <t>Jacob Catslaan 49</t>
+  </si>
+  <si>
+    <t>3705BP</t>
+  </si>
+  <si>
+    <t>Zeist</t>
+  </si>
+  <si>
+    <t>Merien</t>
+  </si>
+  <si>
+    <t>Belzen</t>
+  </si>
+  <si>
+    <t>Torenstraat 17</t>
+  </si>
+  <si>
+    <t>4356BG</t>
+  </si>
+  <si>
+    <t>Oostkapelle</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Vries</t>
+  </si>
+  <si>
+    <t>Meeden 2</t>
+  </si>
+  <si>
+    <t>9951HT</t>
+  </si>
+  <si>
+    <t>Winsum</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Leeferink</t>
+  </si>
+  <si>
+    <t>De Kremer 8</t>
+  </si>
+  <si>
+    <t>7603BC</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>Gijs</t>
+  </si>
+  <si>
+    <t>ter</t>
+  </si>
+  <si>
+    <t>Kuile</t>
+  </si>
+  <si>
+    <t>Vermeerstraat 11</t>
+  </si>
+  <si>
+    <t>8021VH</t>
+  </si>
+  <si>
+    <t>Els</t>
+  </si>
+  <si>
+    <t>Rouwelaar</t>
+  </si>
+  <si>
+    <t>Wolterbeekstraat 66</t>
+  </si>
+  <si>
+    <t>2515MV</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -346,6 +604,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -371,11 +635,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -606,384 +873,785 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
